--- a/webScrapping/espn_scrapper/IPL/Mumbai Indians/James Pattinson.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Mumbai Indians/James Pattinson.xlsx
@@ -439,72 +439,72 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Sep 19 2020</v>
+        <v xml:space="preserve"> Nov 3 2020</v>
       </c>
       <c r="B2" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Sharjah</v>
       </c>
       <c r="C2" t="str">
-        <v>Super Kings won by 5 wickets (with 4 balls remaining)</v>
+        <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F2" t="str">
         <v>James Pattinson</v>
       </c>
       <c r="G2" t="str">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H2" t="str">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I2" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="str">
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>137.50</v>
+        <v>80.00</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Nov 3 2020</v>
+        <v xml:space="preserve"> Sep 19 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Sharjah</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
+        <v>Super Kings won by 5 wickets (with 4 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="E3" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="F3" t="str">
         <v>James Pattinson</v>
       </c>
       <c r="G3" t="str">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H3" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="str">
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>80.00</v>
+        <v>137.50</v>
       </c>
     </row>
   </sheetData>
